--- a/notionconverted/notion_메인.xlsx
+++ b/notionconverted/notion_메인.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>main/home(네이티브)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>main/home(네이티브)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -532,12 +532,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>main/home(네이티브)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>상단 검색 버튼 클릭</t>
+          <t>상단 장바구니 클릭</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,27 +545,31 @@
           <t>click</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>장바구니</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_id, channel, click_text</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>life/main/home, Rround, {{클릭한 텍스트}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>main/home(네이티브)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>상단 장바구니 클릭</t>
+          <t>GNB 클릭</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,49 +579,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>장바구니</t>
+          <t>하단 GNB</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>page_id, channel, click_text</t>
+          <t>page_id, channel, click_text, gnb_text</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>life/main/home, Rround, {{클릭한 텍스트}}</t>
+          <t>life/main/home, Rround, {{클릭한 텍스트}}, {{gnb텍스트}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>main/home/top_menu</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GNB 클릭</t>
+          <t>상단 메뉴 조회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>하단 GNB</t>
-        </is>
-      </c>
+          <t>pageview</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>page_id, channel, click_text, gnb_text</t>
+          <t>page_id</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>life/main/home, Rround, {{클릭한 텍스트}}, {{gnb텍스트}}</t>
+          <t>life/main/home/top_menu</t>
         </is>
       </c>
     </row>
@@ -629,23 +629,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>상단 메뉴 조회</t>
+          <t>상단 메뉴 클릭</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pageview</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>상단 메뉴</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_id, el_order, click_text</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>life/main/home/top_menu</t>
+          <t>life/main/home/top_menu, {{순서}}, {{제목 텍스트}}</t>
         </is>
       </c>
     </row>
@@ -657,7 +661,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>상단 메뉴 클릭</t>
+          <t>상단 메뉴 광고 클릭</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,12 +676,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>page_id, el_order, click_text</t>
+          <t>page_id, ad_id</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>life/main/home/top_menu, {{순서}}, {{제목 텍스트}}</t>
+          <t>life/main/home/top_menu, {{광고ID}}</t>
         </is>
       </c>
     </row>
@@ -689,27 +693,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>상단 메뉴 광고 클릭</t>
+          <t>광고 노출</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>상단 메뉴</t>
-        </is>
-      </c>
+          <t>impression</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>page_id, ad_id</t>
+          <t>page_id, channel, ad_id</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>life/main/home/top_menu, {{광고ID}}</t>
+          <t>life/main/home/top_menu, Rround, {{광고ID}}</t>
         </is>
       </c>
     </row>
@@ -721,23 +721,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>상단 알림함 클릭</t>
+          <t>상단 카드 배너 노출</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>click</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_id, banner_id, banner_text, order, impression_type</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>life/{{path}}, {{배너ID}}, {{배너 텍스트}}, {{배너 순서}}, 메인 상단 카드 배너</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>상단 프로필 클릭</t>
+          <t>상단 카드 배너 클릭</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -757,43 +757,47 @@
           <t>click</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>메인 상단 카드 배너</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>page_id</t>
+          <t>page_id, banner_id, banner_url, banner_text</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>main/home</t>
+          <t>life/{{path}}, {{배너ID}}, {{배너 랜딩 URL}}, {{배너 텍스트}}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>main/home/top_menu</t>
+          <t>main/home</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>광고 노출</t>
+          <t>상단 카드 스와이프</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>swipe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>page_id, channel, ad_id</t>
+          <t>page_id, swipe_direct</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>life/main/home/top_menu, Rround, {{광고ID}}</t>
+          <t>life/{{url path}}, {{스와이프방향}}</t>
         </is>
       </c>
     </row>
@@ -805,23 +809,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>상단 카드 배너 노출</t>
+          <t>퀵 메뉴 클릭</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>impression</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>퀵버튼</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>page_id, banner_id, banner_text, order, impression_type</t>
+          <t>page_id, el_order, click_text</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>life/{{path}}, {{배너 id}}, {{배너 TEXT}}, {{배너 순서}}, 메인 상단 카드 배너</t>
+          <t>life/{{url path}}, {{요소순서}}, {{요소 텍스트}}</t>
         </is>
       </c>
     </row>
@@ -833,7 +841,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>상단 카드 배너 클릭</t>
+          <t>블록 피드 클릭</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -843,17 +851,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>메인 상단 카드 배너</t>
+          <t>피드</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>page_id, banner_id, banner_url, banner_text</t>
+          <t>page_id, module_id, module_name, module_order, el_order, feed_id, feed_writer, click_text</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>life/{{path}}, {{배너 id}}, {{배너 랜딩 url}}, {{배너 TEXT}}</t>
+          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{피드ID}}, {{생성자프로필명}}, {{텍스트}}</t>
         </is>
       </c>
     </row>
@@ -865,23 +873,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>상단 카드 스와이프</t>
+          <t>블록 챌린지 클릭</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>swipe</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>click</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>챌린지</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>page_id, swipe_direct</t>
+          <t>page_id, module_id, module_name, module_order, el_order, challengeName, chal_id, main_title, chal_join_cnt, sticker, click_text</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>life/{{url path}}, {{스와이프방향}}</t>
+          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{챌린지명}}, {{챌린지ID}}, {{홍보문구}}, {{참여자수}}, {{스티커 텍스트}}, {{해당요소 텍스트}}</t>
         </is>
       </c>
     </row>
@@ -893,7 +905,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>퀵 메뉴 클릭</t>
+          <t>블록 스토어 클릭</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -903,17 +915,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>퀵버튼</t>
+          <t>스토어</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>page_id, el_order, click_text</t>
+          <t>page_id, module_id, module_name, module_order, el_order, prd_code, prd_name, prd_price_final, prd_disc_rate, prd_review_score, prd_review_cnt, prd_tag, click_text</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>life/{{url path}}, {{요소순서}}, {{요소 텍스트}}</t>
+          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{상품ID}}, {{상품명}}, {{할인 후 가격}}, {{할인율}}, {{리뷰 평점}}, {{리뷰 수}}, {{해시태그}}, {{요소 클릭 텍스트}}</t>
         </is>
       </c>
     </row>
@@ -925,7 +937,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>요소 클릭 : 블록 &gt; 피드</t>
+          <t>블록 뉴스 클릭</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -935,17 +947,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>피드</t>
+          <t>뉴스</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>page_id, module_id, module_name, module_order, el_order, feed_id, feed_writer, click_text</t>
+          <t>page_id, module_id, module_name, module_order, el_order, article_id, article_title, click_text</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{피드ID}}, {{생성자프로필명}}, {{텍스트}}</t>
+          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{뉴스ID}}, {{뉴스 제목}}, {{기사설명}}</t>
         </is>
       </c>
     </row>
@@ -957,7 +969,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>요소 클릭 : 블록 &gt; 챌린지</t>
+          <t>블록 광고 클릭</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -967,17 +979,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>챌린지</t>
+          <t>광고</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>page_id, module_id, module_name, module_order, el_order, challengeName, chal_id, main_title, chal_join_cnt, sticker, click_text</t>
+          <t>page_id, module_id, module_name, module_order, el_order, ad_id</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{챌린지명}}, {{챌린지ID}}, {{홍보문구}}, {{참여자수}}, {{스티커 텍스트}}, {{해당요소 텍스트}}</t>
+          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{광고ID}}</t>
         </is>
       </c>
     </row>
@@ -989,7 +1001,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>요소 클릭 : 블록 &gt; 스토어</t>
+          <t>메인 하단 팝업 배너 클릭</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -999,113 +1011,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>스토어</t>
+          <t>메인 하단 팝업 배너</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>page_id, module_id, module_name, module_order, el_order, prd_code, prd_name, prd_price_final, prd_disc_rate, prd_review_score, prd_review_cnt, prd_tag, click_text</t>
+          <t>page_id, banner_id, banner_url, banner_text, order, banner_position</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{상품ID}}, {{상품명}}, {{할인 후 가격}}, {{할인율}}, {{리뷰 평점}}, {{리뷰 수}}, {{해시태그}}, {{요소 클릭 텍스트}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>main/home</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>요소 클릭 : 블록 &gt; 뉴스</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>뉴스</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>page_id, module_id, module_name, module_order, el_order, article_id, article_title, click_text</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{뉴스ID}}, {{뉴스 제목}}, {{기사설명}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>main/home</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>요소 클릭 : 블록 &gt; 광고</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>광고</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>page_id, module_id, module_name, module_order, el_order, ad_id</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>life/{{url path}}, {{data-module}}, {{클래스네임}}, {{data-module-index}}, {{요소 순서}}, {{광고ID}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>main/home</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>메인 하단 팝업 배너 클릭</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>click</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>메인 하단 팝업 배너</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>page_id, banner_id, banner_url, banner_text, order, banner_position</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>ecommerce/{{path}}, {{배너 id}}, {{배너 랜딩 url}}, {{배너 TEXT}}, {{배너 순서}}, 커머스 메인 하단 팝업 배너</t>
+          <t>ecommerce/{{path}}, {{배너ID}}, {{배너 랜딩 URL}}, {{배너 텍스트}}, {{배너 순서}}, 커머스 메인 하단 팝업 배너</t>
         </is>
       </c>
     </row>
